--- a/ky/downloads/data-excel/2.2.2.xlsx
+++ b/ky/downloads/data-excel/2.2.2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="132">
   <si>
     <t>Кыргызская Республика</t>
   </si>
@@ -121,9 +121,6 @@
     <t xml:space="preserve"> (in percent)</t>
   </si>
   <si>
-    <t>(пайыздарда)</t>
-  </si>
-  <si>
     <t>*SD - стандарттык четтөө</t>
   </si>
   <si>
@@ -148,24 +145,6 @@
     <t>Оverweight (+2SD)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Көп көрсөткүчтүү кластердик изилдөөнүн маалыматтары боюнча, 2018-ж.</t>
-  </si>
-  <si>
-    <t>По данным кластерного обследования по многим показателям, 2018г.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Көп индикаторлуу кластердик изилдөөнүн маалыматтары боюнча, 2014-ж.</t>
-  </si>
-  <si>
-    <t>По данным много индикаторного кластерного обследования, 2014г.</t>
-  </si>
-  <si>
-    <t>According to Multiple Indicator Cluster Survey, 2014</t>
-  </si>
-  <si>
-    <t>According to Multiple Indicator Cluster Survey, 2018.</t>
-  </si>
-  <si>
     <t>2.2.2 Распространенность неполноценного питания среди детей в возрасте до пяти лет в разбивке по виду (истощение или ожирение)</t>
   </si>
   <si>
@@ -419,6 +398,18 @@
   </si>
   <si>
     <t>Жетиштүү жашоо индекси боюнча квинтиль</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Көп индикаторлуу кластердик изилдөөнүн маалыматтары боюнча, 2014-ж., 2018-ж., 2023-ж.</t>
+  </si>
+  <si>
+    <t>По данным много индикаторного кластерного обследования, 2014г., 2018г., 2023г.</t>
+  </si>
+  <si>
+    <t>According to Multiple Indicator Cluster Survey, 2014, 2018, 2023</t>
+  </si>
+  <si>
+    <t>(пайыз менен)</t>
   </si>
 </sst>
 </file>
@@ -625,7 +616,7 @@
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -691,9 +682,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1060,36 +1048,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="49.7109375" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" customWidth="1"/>
+    <col min="1" max="3" width="40.5703125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="38.25">
+    <row r="1" spans="1:6" ht="46.5" customHeight="1">
       <c r="A1" s="19" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D1" s="12"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="21" t="s">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>33</v>
@@ -1099,11 +1083,12 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1">
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -1119,21 +1104,25 @@
       <c r="E4" s="16">
         <v>2018</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="27" t="s">
+      <c r="F4" s="16">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>39</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>40</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1149,8 +1138,11 @@
       <c r="E6" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -1166,8 +1158,11 @@
       <c r="E7" s="11">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="11">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -1183,8 +1178,11 @@
       <c r="E8" s="11">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
@@ -1200,8 +1198,11 @@
       <c r="E9" s="11">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="11">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -1217,8 +1218,11 @@
       <c r="E10" s="11">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="11">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
@@ -1234,8 +1238,11 @@
       <c r="E11" s="11">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="11">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
@@ -1251,8 +1258,11 @@
       <c r="E12" s="11">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="11">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
         <v>27</v>
       </c>
@@ -1268,8 +1278,11 @@
       <c r="E13" s="11">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="11">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
         <v>28</v>
       </c>
@@ -1285,8 +1298,11 @@
       <c r="E14" s="11">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="11">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="6" t="s">
         <v>29</v>
       </c>
@@ -1302,432 +1318,498 @@
       <c r="E15" s="11">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" s="33" t="s">
+      <c r="F15" s="11">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="27">
+        <v>2.8</v>
+      </c>
+      <c r="E17" s="27">
+        <v>2</v>
+      </c>
+      <c r="F17" s="27">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="27">
+        <v>2.9</v>
+      </c>
+      <c r="E18" s="27">
+        <v>2.1</v>
+      </c>
+      <c r="F18" s="27">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="27">
+        <v>2.6</v>
+      </c>
+      <c r="E20" s="27">
+        <v>1.8</v>
+      </c>
+      <c r="F20" s="27">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="27">
+        <v>2.9</v>
+      </c>
+      <c r="E21" s="27">
+        <v>2.1</v>
+      </c>
+      <c r="F21" s="27">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="33" t="s">
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="27">
+        <v>6.5</v>
+      </c>
+      <c r="E23" s="27">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F23" s="27">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="27">
+        <v>3.1</v>
+      </c>
+      <c r="E24" s="27">
+        <v>3</v>
+      </c>
+      <c r="F24" s="27">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="27">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E25" s="27">
+        <v>3.2</v>
+      </c>
+      <c r="F25" s="27">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="27">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E26" s="27">
+        <v>0.9</v>
+      </c>
+      <c r="F26" s="27">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="27">
+        <v>1.6</v>
+      </c>
+      <c r="E27" s="27">
+        <v>2.1</v>
+      </c>
+      <c r="F27" s="27">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="27">
+        <v>2.9</v>
+      </c>
+      <c r="E28" s="27">
+        <v>1.3</v>
+      </c>
+      <c r="F28" s="27">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="27">
+        <v>2.7</v>
+      </c>
+      <c r="E29" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="F29" s="27">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="34" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="28">
+      <c r="B32" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="27">
+        <v>3.2</v>
+      </c>
+      <c r="E32" s="27">
         <v>2.8</v>
       </c>
-      <c r="E17" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="28">
+      <c r="F32" s="27">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="27">
+        <v>3.2</v>
+      </c>
+      <c r="E33" s="27">
+        <v>1.8</v>
+      </c>
+      <c r="F33" s="27">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="27">
+        <v>2.1</v>
+      </c>
+      <c r="E34" s="27">
+        <v>2.4</v>
+      </c>
+      <c r="F34" s="27">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="27">
+        <v>2.5</v>
+      </c>
+      <c r="E35" s="27">
+        <v>1.8</v>
+      </c>
+      <c r="F35" s="27">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="27">
+        <v>3.1</v>
+      </c>
+      <c r="E37" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="F37" s="27">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="27">
+        <v>3.6</v>
+      </c>
+      <c r="E38" s="27">
         <v>2.9</v>
       </c>
-      <c r="E18" s="28">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="33" t="s">
+      <c r="F38" s="27">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="28">
+      <c r="B39" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="27">
+        <v>2.4</v>
+      </c>
+      <c r="E39" s="27">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F39" s="27">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="27">
+        <v>1.6</v>
+      </c>
+      <c r="E40" s="27">
+        <v>0.9</v>
+      </c>
+      <c r="F40" s="27">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="27">
+        <v>3.3</v>
+      </c>
+      <c r="E41" s="27">
         <v>2.6</v>
       </c>
-      <c r="E20" s="28">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="28">
-        <v>2.9</v>
-      </c>
-      <c r="E21" s="28">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="28">
-        <v>6.5</v>
-      </c>
-      <c r="E23" s="28">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="28">
-        <v>3.1</v>
-      </c>
-      <c r="E24" s="28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="28">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E25" s="28">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="28">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E26" s="28">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="28">
-        <v>1.6</v>
-      </c>
-      <c r="E27" s="28">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="28">
-        <v>2.9</v>
-      </c>
-      <c r="E28" s="28">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="28">
-        <v>2.7</v>
-      </c>
-      <c r="E29" s="28">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="28">
-        <v>3.2</v>
-      </c>
-      <c r="E32" s="28">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="28">
-        <v>3.2</v>
-      </c>
-      <c r="E33" s="28">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" s="28">
-        <v>2.1</v>
-      </c>
-      <c r="E34" s="28">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" s="28">
-        <v>2.5</v>
-      </c>
-      <c r="E35" s="28">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="28">
-        <v>3.1</v>
-      </c>
-      <c r="E37" s="28">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D38" s="28">
-        <v>3.6</v>
-      </c>
-      <c r="E38" s="28">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" s="28">
-        <v>2.4</v>
-      </c>
-      <c r="E39" s="28">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="28">
-        <v>1.6</v>
-      </c>
-      <c r="E40" s="28">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D41" s="28">
-        <v>3.3</v>
-      </c>
-      <c r="E41" s="28">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="26" t="s">
+      <c r="F41" s="27">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A42" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="C42" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="26" t="s">
-        <v>43</v>
-      </c>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="A43" s="4" t="s">
         <v>20</v>
       </c>
@@ -1740,11 +1822,14 @@
       <c r="D43" s="15">
         <v>7</v>
       </c>
-      <c r="E43" s="29">
+      <c r="E43" s="28">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43" s="28">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="5" t="s">
         <v>21</v>
       </c>
@@ -1757,11 +1842,14 @@
       <c r="D44" s="11">
         <v>3.4</v>
       </c>
-      <c r="E44" s="28">
+      <c r="E44" s="27">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44" s="27">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="5" t="s">
         <v>22</v>
       </c>
@@ -1774,11 +1862,14 @@
       <c r="D45" s="11">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E45" s="28">
+      <c r="E45" s="27">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45" s="27">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="5" t="s">
         <v>23</v>
       </c>
@@ -1791,11 +1882,14 @@
       <c r="D46" s="11">
         <v>7.8</v>
       </c>
-      <c r="E46" s="28">
+      <c r="E46" s="27">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46" s="27">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="5" t="s">
         <v>24</v>
       </c>
@@ -1808,11 +1902,14 @@
       <c r="D47" s="11">
         <v>6.2</v>
       </c>
-      <c r="E47" s="28">
+      <c r="E47" s="27">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47" s="27">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="5" t="s">
         <v>25</v>
       </c>
@@ -1825,11 +1922,14 @@
       <c r="D48" s="11">
         <v>4.7</v>
       </c>
-      <c r="E48" s="28">
+      <c r="E48" s="27">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48" s="27">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="5" t="s">
         <v>26</v>
       </c>
@@ -1842,11 +1942,14 @@
       <c r="D49" s="11">
         <v>7.3</v>
       </c>
-      <c r="E49" s="28">
+      <c r="E49" s="27">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49" s="27">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="5" t="s">
         <v>27</v>
       </c>
@@ -1859,11 +1962,14 @@
       <c r="D50" s="11">
         <v>9</v>
       </c>
-      <c r="E50" s="28">
+      <c r="E50" s="27">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50" s="27">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="6" t="s">
         <v>28</v>
       </c>
@@ -1876,11 +1982,14 @@
       <c r="D51" s="11">
         <v>9.5</v>
       </c>
-      <c r="E51" s="28">
+      <c r="E51" s="27">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51" s="27">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="6" t="s">
         <v>29</v>
       </c>
@@ -1893,460 +2002,519 @@
       <c r="D52" s="11">
         <v>4.3</v>
       </c>
-      <c r="E52" s="28">
+      <c r="E52" s="27">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="B53" s="33" t="s">
+      <c r="F52" s="27">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="27">
+        <v>7.8</v>
+      </c>
+      <c r="E54" s="27">
+        <v>6.8</v>
+      </c>
+      <c r="F54" s="27">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" s="27">
+        <v>6.1</v>
+      </c>
+      <c r="E55" s="27">
+        <v>7.1</v>
+      </c>
+      <c r="F55" s="27">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" s="27">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E57" s="27">
+        <v>7</v>
+      </c>
+      <c r="F57" s="27">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" s="27">
+        <v>6.5</v>
+      </c>
+      <c r="E58" s="27">
+        <v>6.9</v>
+      </c>
+      <c r="F58" s="27">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="33" t="s">
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" s="27">
+        <v>9</v>
+      </c>
+      <c r="E60" s="27">
+        <v>9.4</v>
+      </c>
+      <c r="F60" s="27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" s="27">
+        <v>11.5</v>
+      </c>
+      <c r="E61" s="27">
+        <v>10.5</v>
+      </c>
+      <c r="F61" s="27">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" s="27">
+        <v>11.1</v>
+      </c>
+      <c r="E62" s="27">
+        <v>7.3</v>
+      </c>
+      <c r="F62" s="27">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63" s="27">
+        <v>6.8</v>
+      </c>
+      <c r="E63" s="27">
+        <v>8.5</v>
+      </c>
+      <c r="F63" s="27">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" s="27">
+        <v>6.8</v>
+      </c>
+      <c r="E64" s="27">
+        <v>7.2</v>
+      </c>
+      <c r="F64" s="27">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" s="27">
+        <v>5</v>
+      </c>
+      <c r="E65" s="27">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F65" s="27">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" s="27">
+        <v>3.3</v>
+      </c>
+      <c r="E66" s="27">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F66" s="27">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D68" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E68" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="F68" s="33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D54" s="28">
-        <v>7.8</v>
-      </c>
-      <c r="E54" s="28">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D55" s="28">
+      <c r="B69" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D69" s="27">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E69" s="27">
+        <v>7.4</v>
+      </c>
+      <c r="F69" s="27">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D70" s="27">
+        <v>6.7</v>
+      </c>
+      <c r="E70" s="27">
         <v>6.1</v>
       </c>
-      <c r="E55" s="28">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="33" t="s">
+      <c r="F70" s="27">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D71" s="27">
+        <v>7.2</v>
+      </c>
+      <c r="E71" s="27">
+        <v>8.5</v>
+      </c>
+      <c r="F71" s="27">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D72" s="27">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E72" s="27">
+        <v>6.9</v>
+      </c>
+      <c r="F72" s="27">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B73" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74" s="27">
+        <v>6.2</v>
+      </c>
+      <c r="E74" s="27">
+        <v>7</v>
+      </c>
+      <c r="F74" s="27">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D75" s="27">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E75" s="27">
+        <v>6.2</v>
+      </c>
+      <c r="F75" s="27">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="B56" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="C56" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D57" s="28">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E57" s="28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D58" s="28">
-        <v>6.5</v>
-      </c>
-      <c r="E58" s="28">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="B59" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="C59" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D60" s="28">
-        <v>9</v>
-      </c>
-      <c r="E60" s="28">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D61" s="28">
-        <v>11.5</v>
-      </c>
-      <c r="E61" s="28">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D62" s="28">
-        <v>11.1</v>
-      </c>
-      <c r="E62" s="28">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D63" s="28">
-        <v>6.8</v>
-      </c>
-      <c r="E63" s="28">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D64" s="28">
-        <v>6.8</v>
-      </c>
-      <c r="E64" s="28">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D65" s="28">
-        <v>5</v>
-      </c>
-      <c r="E65" s="28">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D66" s="28">
-        <v>3.3</v>
-      </c>
-      <c r="E66" s="28">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C67" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="B68" s="10" t="s">
+      <c r="B76" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="C76" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D68" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="E68" s="34" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D69" s="28">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="E69" s="28">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D70" s="28">
-        <v>6.7</v>
-      </c>
-      <c r="E70" s="28">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D71" s="28">
-        <v>7.2</v>
-      </c>
-      <c r="E71" s="28">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D72" s="28">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="E72" s="28">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="B73" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="C73" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="E73" s="28"/>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D74" s="28">
-        <v>6.2</v>
-      </c>
-      <c r="E74" s="28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D75" s="28">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E75" s="28">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D76" s="28">
+      <c r="D76" s="27">
         <v>7</v>
       </c>
       <c r="E76">
         <v>7</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="36" t="s">
-        <v>124</v>
+      <c r="F76">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="35" t="s">
+        <v>117</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D77" s="28">
+        <v>97</v>
+      </c>
+      <c r="D77" s="27">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E77" s="28">
+      <c r="E77" s="27">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A78" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="B78" s="32" t="s">
-        <v>92</v>
+      <c r="F77" s="27">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A78" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B78" s="31" t="s">
+        <v>85</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="D78" s="30">
+        <v>98</v>
+      </c>
+      <c r="D78" s="29">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E78" s="30">
+      <c r="E78" s="29">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="24">
+      <c r="F78" s="29">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="27" customHeight="1">
       <c r="A79" s="14" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C79" s="24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="24">
-      <c r="A80" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>45</v>
+        <v>129</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B81" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="C81" s="25" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
